--- a/data/financial_statements/sofp/DFS.xlsx
+++ b/data/financial_statements/sofp/DFS.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -113,9 +233,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -168,12 +285,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -470,625 +584,637 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN31"/>
+  <dimension ref="A1:AO31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>21105000000</v>
+      </c>
+      <c r="C2">
         <v>11870000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>11471000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>9643000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>11332000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>12748000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>16368000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>20674000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>13589000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>10089000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>15167000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>11211000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>6964000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>6112000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>11353000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>15213000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>15145000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>16609000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>15919000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>17098000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>13387000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>14528000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>13043000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>16263000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>12009000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>13023000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>10715000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>13145000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>9671000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>10348000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>11349000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>11923000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>7390000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>7485000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>7184000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>9894000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>6736000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>5806000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>6281000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>8549000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>125851000000</v>
+      </c>
+      <c r="C3">
         <v>109717000000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>104015000000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>96467000000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>98194000000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>95429000000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>97016000000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>99674000000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>95812000000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>90523000000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>95910000000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>97261000000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>99475000000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>95306000000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>98380000000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>100822000000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>102616000000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>100576000000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>97880000000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>97106000000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>95014000000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>92440000000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>88656000000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>89852000000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>87096000000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>84550000000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>80690000000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>81544000000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>80187000000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>78683000000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>78642000000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>77795000000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>75613000000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>73207000000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>71445000000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>72155000000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>70859000000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>66946000000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>66428000000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>67299000000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>1003000000</v>
+      </c>
+      <c r="C4">
         <v>1015000000</v>
-      </c>
-      <c r="C4">
-        <v>984000000</v>
       </c>
       <c r="D4">
         <v>984000000</v>
       </c>
       <c r="E4">
+        <v>984000000</v>
+      </c>
+      <c r="F4">
         <v>983000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>987000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>986000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1021000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>1027000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>1121000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>1115000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>1070000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>1057000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>1028000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>1008000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>980000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>936000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>896000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>874000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>848000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>825000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>800000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>774000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>750000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>734000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>722000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>708000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>706000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>693000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>684000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>688000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>678000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>670000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>661000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>665000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>668000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>654000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>639000000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>607000000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>572000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5">
         <v>6897000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>5536000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>5977000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>6904000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>8014000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>8841000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>9432000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>12114000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>28902000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>13034000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>10782000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>10595000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>11649000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>8581000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>6243000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>3370000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>1801000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>1522000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>1543000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>1568000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>1627000000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>1679000000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>1718000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>1757000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>2705000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>3521000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>2956000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>3084000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>3302000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>2701000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>2778000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>3949000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>3995000000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>4070000000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>3964000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>4991000000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>5014000000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>4943000000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>5270000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
         <v>255000000</v>
@@ -1103,13 +1229,13 @@
         <v>255000000</v>
       </c>
       <c r="F6">
-        <v>256000000</v>
+        <v>255000000</v>
       </c>
       <c r="G6">
         <v>256000000</v>
       </c>
       <c r="H6">
-        <v>350000000</v>
+        <v>256000000</v>
       </c>
       <c r="I6">
         <v>350000000</v>
@@ -1118,28 +1244,28 @@
         <v>350000000</v>
       </c>
       <c r="K6">
+        <v>350000000</v>
+      </c>
+      <c r="L6">
         <v>351000000</v>
-      </c>
-      <c r="L6">
-        <v>410000000</v>
       </c>
       <c r="M6">
         <v>410000000</v>
       </c>
       <c r="N6">
+        <v>410000000</v>
+      </c>
+      <c r="O6">
         <v>414000000</v>
-      </c>
-      <c r="O6">
-        <v>415000000</v>
       </c>
       <c r="P6">
         <v>415000000</v>
       </c>
       <c r="Q6">
+        <v>415000000</v>
+      </c>
+      <c r="R6">
         <v>416000000</v>
-      </c>
-      <c r="R6">
-        <v>417000000</v>
       </c>
       <c r="S6">
         <v>417000000</v>
@@ -1148,1439 +1274,1463 @@
         <v>417000000</v>
       </c>
       <c r="U6">
-        <v>418000000</v>
+        <v>417000000</v>
       </c>
       <c r="V6">
         <v>418000000</v>
       </c>
       <c r="W6">
+        <v>418000000</v>
+      </c>
+      <c r="X6">
         <v>419000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>420000000</v>
-      </c>
-      <c r="Y6">
-        <v>421000000</v>
       </c>
       <c r="Z6">
         <v>421000000</v>
       </c>
       <c r="AA6">
-        <v>422000000</v>
+        <v>421000000</v>
       </c>
       <c r="AB6">
         <v>422000000</v>
       </c>
       <c r="AC6">
+        <v>422000000</v>
+      </c>
+      <c r="AD6">
         <v>423000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>424000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>425000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>432000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>433000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>461000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>463000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>466000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>469000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>472000000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>475000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>473000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>4519000000</v>
+      </c>
+      <c r="C7">
         <v>4002000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>3810000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>3729000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3906000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>3858000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>3886000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>3394000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>3586000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>3453000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>3382000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>3134000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>2459000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>2389000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>2323000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>2260000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>2215000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>2152000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>2058000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>2053000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>2262000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>2323000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>2229000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>2055000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>2300000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>2143000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>2170000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>2465000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>2412000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>2518000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>2455000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>2495000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>2461000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>2272000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>2294000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>2331000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>2367000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>2473000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>2491000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>2525000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
+        <v>5777000000</v>
+      </c>
+      <c r="C8">
         <v>12169000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>10585000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>10945000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>12048000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>13115000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>13969000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>14197000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>17077000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>33826000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>17882000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>15396000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>14521000000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>15480000000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>12327000000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>9898000000</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>6937000000</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>5266000000</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>4871000000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>4861000000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>5073000000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>5168000000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>5101000000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>4943000000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>5212000000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>5991000000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>6821000000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>6549000000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>6612000000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>6928000000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>6269000000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>6383000000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>7513000000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>7389000000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>7492000000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>7429000000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>8481000000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>8598000000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>8516000000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>8840000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>131628000000</v>
+      </c>
+      <c r="C9">
         <v>121886000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>114600000000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>107412000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>110242000000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>108544000000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>110985000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>113871000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>112889000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>124349000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>113792000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>112657000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>113996000000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>110786000000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>110707000000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>110720000000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>109553000000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>105842000000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>102751000000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>101967000000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>100087000000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>97608000000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>93757000000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>94795000000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>92308000000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>90541000000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>87511000000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>88093000000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>86799000000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>85611000000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>84911000000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>84178000000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>83126000000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>80596000000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>78937000000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>79584000000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>79340000000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>75544000000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>74944000000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>76139000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>20108000000</v>
+      </c>
+      <c r="C10">
         <v>20177000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>1800000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>17132000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>1750000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>18516000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>21011000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>21241000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>10700000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>23194000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>26098000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>25701000000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>144000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>166000000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>113000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>139000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>120000000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>124000000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>140000000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>124000000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>262000000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>290000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>91636000000</v>
+      </c>
+      <c r="C11">
         <v>82897000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>76412000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>72482000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>72393000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>72562000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>74476000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>76745000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>76904000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>78015000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>77364000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>73418000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>72746000000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>71021000000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>69734000000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>68916000000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>67759000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>63674000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>61683000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>61130000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>58764000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>56135000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>52864000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>53522000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>51992000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>49245000000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>48527000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>48465000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>47531000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>46605000000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>46316000000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>46427000000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>46089000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>45382000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>44445000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>44984000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>44959000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>43117000000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>42568000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>42394000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>5294000000</v>
+      </c>
+      <c r="C12">
         <v>4526000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>4439000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>4365000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>4214000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>4203000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>3988000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>3961000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>3860000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>3541000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>3591000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>3476000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>3690000000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>3594000000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>4317000000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>4269000000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>3436000000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>4154000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>3927000000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>3722000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>4105000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>3549000000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>3196000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>3185000000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>3550000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>3119000000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>2906000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>3560000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>3343000000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>3903000000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>3089000000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>3450000000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>3246000000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>2856000000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>2934000000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>3273000000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>2958000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>3036000000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>3633000000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>3926000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13">
         <v>2331000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>4122000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>2638000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>6935000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>5126000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>4195000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>4217000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>11250000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>1854000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>4759000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>5247000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>117038000000</v>
+      </c>
+      <c r="C14">
         <v>87423000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>82651000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>76847000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>78357000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>76765000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>78464000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>80706000000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>80764000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>92256000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>80955000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>76894000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>76436000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>74615000000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>74051000000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>73185000000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>71195000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>67828000000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>65610000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>64852000000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>62869000000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>59684000000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>56060000000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>56707000000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>55542000000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>52364000000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>51433000000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>52025000000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>50874000000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>50508000000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>49549000000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>50043000000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>49448000000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>48377000000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>47499000000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>48381000000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>48057000000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>46277000000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>46463000000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>46610000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15">
         <v>20177000000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>18185000000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>17132000000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>18477000000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>18516000000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>19350000000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>21011000000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>21241000000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>21841000000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>23194000000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>26098000000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>25701000000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>24454000000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>25163000000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>26276000000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>27228000000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>26998000000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>26252000000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>26244000000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>26326000000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>26737000000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>26438000000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>26823000000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>25443000000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>26830000000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>24681000000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>24752000000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>24650000000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>23800000000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>24099000000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>22924000000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>22544000000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>20918000000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>20057000000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>20182000000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>20474000000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>18665000000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>18033000000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>19230000000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16">
         <v>4526000000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>4439000000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>4365000000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>4214000000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>4203000000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>3988000000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>3961000000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>3860000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>3541000000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>3591000000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>3476000000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>3690000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17">
         <v>20177000000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>18185000000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>17132000000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>18477000000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>18516000000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>19350000000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>21011000000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>21241000000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>21841000000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>23194000000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>26098000000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>25701000000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>24454000000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>25163000000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>26276000000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>27228000000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>26998000000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>26252000000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>26244000000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>26326000000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>26737000000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>26438000000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>26823000000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>25443000000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>26830000000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>24681000000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>24752000000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>24650000000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>23800000000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>24099000000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>22924000000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>22544000000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>20918000000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>20057000000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>20182000000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>20474000000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>18665000000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>18033000000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>19230000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
+        <v>117038000000</v>
+      </c>
+      <c r="C18">
         <v>107600000000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>100836000000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>93979000000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>96834000000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>95281000000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>97814000000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>101717000000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>102005000000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>114097000000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>104149000000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>102992000000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>102137000000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>99069000000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>99214000000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>99461000000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>98423000000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>94826000000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>91862000000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>91096000000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>89195000000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>86421000000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>82498000000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>83530000000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>80985000000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>79194000000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>76114000000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>76777000000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>75524000000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>74308000000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>73648000000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>72967000000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>71992000000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>69295000000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>67556000000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>68563000000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>68531000000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>64942000000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>64496000000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>65840000000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19">
         <v>4444000000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>4417000000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>4390000000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>4369000000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>4345000000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>4319000000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>4280000000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>4257000000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>4235000000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>4216000000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>4217000000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>4206000000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>4188000000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>4167000000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>4148000000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>4130000000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>4107000000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>4089000000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>4068000000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>4042000000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>4016000000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>3997000000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>3979000000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>3962000000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>3946000000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>3932000000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>3913000000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>3885000000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>3868000000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>3853000000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>3841000000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>3790000000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>3775000000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>3758000000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>3739000000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>3687000000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>3671000000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>3650000000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>3632000000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>1056000000</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="C20">
         <v>1056000000</v>
@@ -2610,7 +2760,7 @@
         <v>1056000000</v>
       </c>
       <c r="L20">
-        <v>563000000</v>
+        <v>1056000000</v>
       </c>
       <c r="M20">
         <v>563000000</v>
@@ -2640,7 +2790,7 @@
         <v>563000000</v>
       </c>
       <c r="V20">
-        <v>560000000</v>
+        <v>563000000</v>
       </c>
       <c r="W20">
         <v>560000000</v>
@@ -2696,13 +2846,13 @@
       <c r="AN20">
         <v>560000000</v>
       </c>
+      <c r="AO20">
+        <v>560000000</v>
+      </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>6000000</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="C21">
         <v>6000000</v>
@@ -2771,7 +2921,7 @@
         <v>6000000</v>
       </c>
       <c r="Y21">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="Z21">
         <v>5000000</v>
@@ -2816,161 +2966,161 @@
         <v>5000000</v>
       </c>
       <c r="AN21">
+        <v>5000000</v>
+      </c>
+      <c r="AO21">
         <v>6000000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22">
         <v>27585000000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>26776000000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>25833000000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>24766000000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>23846000000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>22936000000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>21373000000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>19955000000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>19292000000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>18673000000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>19175000000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>21290000000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>20720000000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>20107000000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>19484000000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>18906000000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>18354000000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>17787000000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>17211000000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>16687000000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>16452000000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>15989000000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>15568000000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>15130000000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>14696000000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>14188000000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>13698000000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>13250000000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>12880000000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>12400000000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>11936000000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>11467000000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>11182000000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>10659000000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>10138000000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>9611000000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>9115000000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>8629000000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>8136000000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23">
         <v>18452000000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>18240000000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>17639000000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>16695000000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>15922000000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>15107000000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>14554000000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>14435000000</v>
-      </c>
-      <c r="J23">
-        <v>14430000000</v>
       </c>
       <c r="K23">
         <v>14430000000</v>
@@ -2979,584 +3129,593 @@
         <v>14430000000</v>
       </c>
       <c r="M23">
+        <v>14430000000</v>
+      </c>
+      <c r="N23">
         <v>14087000000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>13686000000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>13267000000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>12806000000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>12319000000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>11854000000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>11394000000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>10838000000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>10254000000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>9699000000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>9143000000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>8693000000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>8173000000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>7695000000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>7114000000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>6688000000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>6265000000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>5830000000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>5395000000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>4970000000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>4550000000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>4151000000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>3529000000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>3351000000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>2986000000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>2640000000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>2289000000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>1951000000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24">
         <v>13230000000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>12708000000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>12377000000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>12352000000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>12207000000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>12115000000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>11098000000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>9828000000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>9196000000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>8587000000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>9102000000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>11296000000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>11154000000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>10930000000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>10696000000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>10567000000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>10453000000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>10326000000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>10308000000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>10329000000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>10627000000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>10699000000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>10705000000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>10763000000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>10787000000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>10837000000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>10756000000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>10715000000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>10743000000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>10703000000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>10651000000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>10574000000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>10741000000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>10821000000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>10461000000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>10249000000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>10042000000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>9888000000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>9739000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>14590000000</v>
+      </c>
+      <c r="C25">
         <v>14286000000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>13764000000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>13433000000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>13408000000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>13263000000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>13171000000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>12154000000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>10884000000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>10252000000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>9643000000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>9665000000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>11859000000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>11717000000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>11493000000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>11259000000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>11130000000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>11016000000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>10889000000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>10871000000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>10892000000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>11187000000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>11259000000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>11265000000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>11323000000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>11347000000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>11397000000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>11316000000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>11275000000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>11303000000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>11263000000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>11211000000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>11134000000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>11301000000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>11381000000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>11021000000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>10809000000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>10602000000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>10448000000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>10299000000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>131628000000</v>
+      </c>
+      <c r="C26">
         <v>121886000000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>114600000000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>107412000000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>110242000000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>108544000000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>110985000000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>113871000000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>112889000000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>124349000000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>113792000000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>112657000000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>113996000000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>110786000000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>110707000000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>110720000000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>109553000000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>105842000000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>102751000000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>101967000000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>100087000000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>97608000000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>93757000000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>94795000000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>92308000000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>90541000000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>87511000000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>88093000000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>86799000000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>85611000000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>84911000000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>84178000000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>83126000000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>80596000000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>78937000000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>79584000000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>79340000000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>75544000000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>74944000000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>76139000000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>267000000</v>
+      </c>
+      <c r="C27">
         <v>273225000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>275268000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>280964000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>288328000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>294760000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>301232500</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>305985000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>306597000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>306496000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>306420000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>306302000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>310157000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>314981000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>319475000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>325386000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>331446000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>337919900</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>343901000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>351416000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>357920000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>366043000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>375163000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>382351600</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>388766000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>396436800</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>406532000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>414227000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>421678900</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>429517200</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>437382300</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>444569000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>449188000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>455397000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>465302000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>468384000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>472244000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>478794000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>485544000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>492847000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>10700</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="C28">
         <v>10700</v>
@@ -3586,7 +3745,7 @@
         <v>10700</v>
       </c>
       <c r="L28">
-        <v>5700</v>
+        <v>10700</v>
       </c>
       <c r="M28">
         <v>5700</v>
@@ -3616,7 +3775,7 @@
         <v>5700</v>
       </c>
       <c r="V28">
-        <v>575000</v>
+        <v>5700</v>
       </c>
       <c r="W28">
         <v>575000</v>
@@ -3625,10 +3784,10 @@
         <v>575000</v>
       </c>
       <c r="Y28">
+        <v>575000</v>
+      </c>
+      <c r="Z28">
         <v>581000</v>
-      </c>
-      <c r="Z28">
-        <v>575000</v>
       </c>
       <c r="AA28">
         <v>575000</v>
@@ -3672,370 +3831,379 @@
       <c r="AN28">
         <v>575000</v>
       </c>
+      <c r="AO28">
+        <v>575000</v>
+      </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
+        <v>14335000000</v>
+      </c>
+      <c r="C29">
         <v>14031000000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>13509000000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>13178000000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>13153000000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>13007000000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>12915000000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>11804000000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>10534000000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>9902000000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>9292000000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>9255000000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>11449000000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>11303000000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>11078000000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>10844000000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>10714000000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>10599000000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>10472000000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>10454000000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>10474000000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>10769000000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>10840000000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>10845000000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>10902000000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>10926000000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>10975000000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>10894000000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>10852000000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>10879000000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>10838000000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>10779000000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>10701000000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>10840000000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>10918000000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>10555000000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>10340000000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>10130000000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>9973000000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>9826000000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
+        <v>-21105000000</v>
+      </c>
+      <c r="C30">
         <v>10638000000</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>10836000000</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>10127000000</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>14080000000</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>5768000000</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>8108000000</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>4532000000</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>11869000000</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>23002000000</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>9881000000</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>19646000000</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>23984000000</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>18342000000</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>13810000000</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>11063000000</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>12083000000</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>10389000000</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>10333000000</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>9146000000</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>12939000000</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>12209000000</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>13395000000</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>10560000000</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>13434000000</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>13807000000</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>13966000000</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>11607000000</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>14979000000</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>13452000000</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>12750000000</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>11001000000</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>15154000000</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>13433000000</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>12873000000</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>10288000000</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>13738000000</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>12859000000</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>11752000000</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>10681000000</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31">
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31">
         <v>22508000000</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>22307000000</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>19770000000</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>25412000000</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>18516000000</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>24476000000</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>25206000000</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>25458000000</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>33091000000</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>25048000000</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>30857000000</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>30948000000</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>24454000000</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>25163000000</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>26276000000</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>27228000000</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>26998000000</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>26252000000</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>26244000000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>26326000000</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>26737000000</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>26438000000</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>26823000000</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>25443000000</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>26830000000</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>24681000000</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>24752000000</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>24650000000</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>23800000000</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>24099000000</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>22924000000</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>22544000000</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>20918000000</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>20057000000</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>20182000000</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>20474000000</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>18665000000</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>18033000000</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>19230000000</v>
       </c>
     </row>
